--- a/biology/Zoologie/Réserve_biologique_de_l'Atoll_das_Rocas/Réserve_biologique_de_l'Atoll_das_Rocas.xlsx
+++ b/biology/Zoologie/Réserve_biologique_de_l'Atoll_das_Rocas/Réserve_biologique_de_l'Atoll_das_Rocas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_biologique_de_l%27Atoll_das_Rocas</t>
+          <t>Réserve_biologique_de_l'Atoll_das_Rocas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La réserve biologique de l'Atoll das Rocas est une réserve biologique située dans l'atoll das Rocas au Brésil.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_biologique_de_l%27Atoll_das_Rocas</t>
+          <t>Réserve_biologique_de_l'Atoll_das_Rocas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Classement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La réserve biologique de l'Atoll das Rocas est inscrite depuis 1996 sur la liste indicative brésilienne au patrimoine mondial de l'UNESCO[1]. 
-La réserve est également classée site Ramsar depuis 2015[2]. 
-L'atoll das Rocas, avec les réserves de Fernando de Noronha, est classé au patrimoine mondial de l'UNESCO depuis 2001[3].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La réserve biologique de l'Atoll das Rocas est inscrite depuis 1996 sur la liste indicative brésilienne au patrimoine mondial de l'UNESCO. 
+La réserve est également classée site Ramsar depuis 2015. 
+L'atoll das Rocas, avec les réserves de Fernando de Noronha, est classé au patrimoine mondial de l'UNESCO depuis 2001.  
 </t>
         </is>
       </c>
